--- a/Datasets/UCD_EngArch_Path_Chemical_UG_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Chemical_UG_Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SATLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D0788B-829C-481E-8AD4-A08D07A33E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A420F7B2-B59E-430E-B1F2-61AD6273DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
   <si>
     <t>CHEN10040</t>
   </si>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>NQS2</t>
+  </si>
+  <si>
+    <t>CHEN40150</t>
+  </si>
+  <si>
+    <t>CHEN40160</t>
+  </si>
+  <si>
+    <t>CHEN40210</t>
+  </si>
+  <si>
+    <t>CHEN40620</t>
+  </si>
+  <si>
+    <t>CHEN40570</t>
+  </si>
+  <si>
+    <t>CHEN40790</t>
+  </si>
+  <si>
+    <t>NQS3</t>
   </si>
 </sst>
 </file>
@@ -239,9 +260,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AD8BE-D0F1-4863-8083-BF0D6224CD04}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,28 +1186,28 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1401,28 +1421,184 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
